--- a/other2/thomas/usaco/meetings/meetings.xlsx
+++ b/other2/thomas/usaco/meetings/meetings.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B166A6C-C59A-4A66-955A-EA6772B66DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05C365-2258-4223-AE40-6C44E3680147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="2" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>碰撞次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +78,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +150,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11522,6 +11541,4851 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
             <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="组合 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D38722-B350-4F86-B085-D403F07BEE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3057525" y="8124825"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="99" name="图形 98" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25808CB2-5B06-4932-B817-9C0594832DDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="文本框 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7B5338-6697-40CE-9EF2-600A962A4D88}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>407435</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973B2C38-1D2E-4737-9E16-691A504BDA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2768600" y="6534150"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="图形 5" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E5392-9842-49BD-9CD2-F953902D835D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="文本框 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71A5810-722E-40BB-BA19-AA33A8FFA89C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55010</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="组合 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841D0386-9878-43F5-81E1-EC1D55DBFD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4311650" y="4578350"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图形 8" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D3EF8F-69B2-45EC-B717-F02BBDC49CE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="文本框 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79C2DB8-2CB5-4331-A4B7-FE5454E4F688}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45485</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="组合 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2C1A3E-CC23-4EC6-B17D-32E047FFBB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4826000" y="6162675"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="图形 14" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38061A95-D57D-4D5F-A5DC-265B4BBBEAE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="文本框 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F55AA76-0621-48FC-A171-906D33330B3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58185</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="组合 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0516B4-79A3-4AF6-BA80-F8F95252D867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2720975" y="4578350"/>
+          <a:ext cx="457200" cy="670960"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="图形 17" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EEC5AA-BECA-49E9-A0A0-B3A222C4BCF1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="文本框 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4551B1C-F4A7-4BBC-9E93-46BF94CB166D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42310</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="组合 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F34090-9925-4B98-8F9C-628A28E5965A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1206500" y="390525"/>
+          <a:ext cx="457200" cy="674135"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="图形 26" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2775917-39FF-4492-ABF0-460801F0E5ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="文本框 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D339D842-83E8-4DFA-899F-27C031D3591F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="组合 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A499C81-885F-499C-B29A-CF7B563D5FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2200275" y="390525"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="图形 29" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F39D042-7C4F-4AEB-B315-1CD4DB13C364}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="文本框 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D45704-F9DB-4432-BF6C-4469DF6DEA61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="组合 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B4A180-D875-46C7-A6F6-3331C2DFC02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4257675" y="390525"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="图形 32" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF894AF-3C0F-45E6-82A5-3E226EFE7219}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="文本框 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA94BB8-B42D-4689-8EAB-92E904BB3D62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="组合 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17998E1F-6762-436D-B299-D6EC5D771E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5292725" y="390525"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="图形 35" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D93D8F-2E11-48BC-ADC4-E8E18A562873}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="文本框 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E4FA18-930A-4C0E-99A4-54CE3BB8AD6B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67710</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="组合 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D75A31-F50B-491F-9D45-EDAABC8CDFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1177925" y="4591050"/>
+          <a:ext cx="457200" cy="664610"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="图形 56" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324F6CEC-F9FC-4A84-B448-82EE56EB0001}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="文本框 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73919689-FC9F-41F0-96CA-CFAE02E68DEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45485</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="组合 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4727EC1B-F378-4925-9E43-BCD0E9C40F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3768725" y="4572000"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="图形 59" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F846A7-E194-417D-95E7-BE4270AB1653}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="文本框 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DADA6D-7B27-4620-B3FE-C6C4C785743B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64535</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="组合 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD32980B-C76E-4BFD-8BDE-68B15B5CB94B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2692400" y="6200775"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="63" name="图形 62" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01DCD11-2A50-4DEB-B136-27EB8494BB4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="文本框 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827ACFCA-D58C-4FB1-BD47-719E6520D749}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45485</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="组合 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D016FB2-EB15-4138-ADF8-884EDD1DB446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3216275" y="6178550"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="66" name="图形 65" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08827416-6602-485B-9BBA-77AB0A7B8BB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="文本框 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134387C2-8BE4-4791-BDE8-0342E52765DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39135</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="组合 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1724B301-E651-4F24-8BF3-3469BCDE9A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2187575" y="7778750"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="69" name="图形 68" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EB938B-A311-40E8-9767-44EB5D5C238D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="文本框 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C45F07-35F5-4CEA-9310-BD745229741F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26435</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="组合 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB3239D-3C0B-401F-A102-8D906C881092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2968625" y="7772400"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="72" name="图形 71" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F78556-3E2E-43F6-9DCD-16C0ED206364}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="文本框 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A076DB69-C315-4D3C-B569-138214743C79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39135</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="组合 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A504BC-E795-468D-A4EA-06F1D3AFC6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5305425" y="7769225"/>
+          <a:ext cx="457200" cy="670960"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="75" name="图形 74" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76D8AA5-049D-43AD-BE1D-69C279CC3695}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="文本框 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7F80EC-F08D-405D-9199-6C88D42111EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="组合 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B06C3E-0103-4B58-B12F-9C97FE60C5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1685925" y="10721975"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="81" name="图形 80" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186759EB-B475-427C-A3AF-4A23F9D4C1A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="文本框 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A019E9-9B6C-4E44-A0CA-F035DCCEBCB5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="组合 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF333BF-FD39-4942-BE4E-53D649F6BE04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5864225" y="9572625"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="84" name="图形 83" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C7C66D-9644-4B39-ADB0-D403D070D104}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="文本框 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2595FF-EF5E-49F4-B30A-EE161B892699}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="组合 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F16CBA-52D4-4D5E-9E3C-E81648C11FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5848350" y="10725150"/>
+          <a:ext cx="457200" cy="664610"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="87" name="图形 86" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0808C2-D121-46AE-A7CB-B9DBA84057B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="文本框 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF74703-5836-41B5-B512-0C31CFAED52B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58185</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="组合 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E9CC44-509F-436E-AE0C-2B3D333165BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="676275" y="6181725"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="2228850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="90" name="图形 89" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DE0E0E-CAE7-4207-AD35-6CB059EB05F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2228850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="文本框 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F67383-DEA4-4EB9-A0C3-7925AF83CAA9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2355850" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48660</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="组合 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AE86EC-FD42-4F73-936D-95D67D6ED7C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3273425" y="390525"/>
+          <a:ext cx="457200" cy="674135"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="93" name="图形 92" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E791C-5A59-4408-8AF9-A0CBB73BC646}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="文本框 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB2FB2C-2863-4537-A0BD-707972D5A101}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55010</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="组合 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD8F17F-D81D-4A46-AD46-1EFF08913E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3248025" y="4581525"/>
+          <a:ext cx="457200" cy="664610"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="图形 95" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2DB85B-5A45-4553-B14F-4400277441E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="文本框 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88704E8B-D01D-449A-8003-7A2B5EACE5E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>55010</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="101" name="组合 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CA9E8D-EC2F-4202-9E34-DBE74B634439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1692275" y="9572625"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="102" name="图形 101" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE37084-54E4-49F4-AE02-53764E4104A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="文本框 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D956DE40-6C8C-4374-AD56-6B5B1E56BE9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="104" name="组合 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761DBAB0-0B32-45E8-8CA5-8D0495B61CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="7816850"/>
+          <a:ext cx="457200" cy="670960"/>
+          <a:chOff x="2228850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="105" name="图形 104" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22594890-2B2F-4D00-A111-023A779DD7C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2228850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="文本框 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9912F6E-6BCD-412C-AADA-88ED59F9B660}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2355850" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="组合 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991AD4EF-5BDD-4F27-85DC-55B7BC5F2DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="657225" y="9588500"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="2228850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="108" name="图形 107" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2375FBB-A0D3-4D4B-B1AF-1BE233345FB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2228850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="文本框 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F05B8A8-7D49-46C2-BD67-7A8B36611A63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2355850" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102635</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="组合 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29F2910-CE2F-4355-92F6-8BAE90C9B9B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2228850" y="9617075"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="111" name="图形 110" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AAAC47-E82B-44E4-A42F-810A0B2A6488}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="文本框 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29998BC9-8C52-4CF9-9F5F-DC4B22ECC924}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="组合 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05D44F2-7087-4B3C-91FB-22137E4C9238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3273425" y="9582150"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="114" name="图形 113" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA5DFC6-8711-4FBA-8528-19D565ECBE84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="文本框 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FC5323-80F3-40DD-92E1-21E3B8BD28E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="组合 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FAD4D1-9764-4B51-B5A3-1F4FF937EB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3787775" y="10721975"/>
+          <a:ext cx="457200" cy="670960"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="117" name="图形 116" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD152E47-9715-4050-ADC9-0B1DA0C20724}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="文本框 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6D883C-A16C-4F19-B516-E9DF79A53F2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>420135</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="组合 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD12B760-2C88-458F-BA22-BAC17E1E1A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1711325" y="1711325"/>
+          <a:ext cx="457200" cy="680485"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="177" name="图形 176" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D488C23-8994-4753-81C0-070472FB2B1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="文本框 177">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC03784-0876-464B-850B-25AD8766F4C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="179" name="组合 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9649423B-CA7A-40A8-9909-E950BC27A273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1647825" y="1349375"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="180" name="图形 179" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4220776E-E69C-4B6A-A264-FD807F2C123E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="文本框 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D24F4D-FA3F-44E3-9E41-702402BF7DEB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>407435</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="182" name="组合 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B869325-3369-4E0A-8F7C-4B3C6C764E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3800475" y="1704975"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="183" name="图形 182" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC948CC-CB40-40B0-BE25-3707B3B58A25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="文本框 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824FAA1D-037B-4217-BFF7-DDBE6127F5EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20085</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="185" name="组合 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F8610B-AD69-4985-B62C-C14ED8A2D605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3749675" y="1333500"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="186" name="图形 185" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4F8094-D406-43A3-AF92-75D020F574E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="文本框 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF51DD8-ACBD-4C49-84EC-306B4643E347}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29610</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="188" name="组合 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A67F28-9D52-49D8-8369-E707C8E11BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4772025" y="1339850"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="189" name="图形 188" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272E3598-D045-446F-A56E-EBD7C8AF62B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="文本框 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E74CAE-99C9-4302-A4DD-BF60D04E041A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="191" name="组合 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099C0509-323E-47AB-9632-4BE5FC53CAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2244725" y="2971800"/>
+          <a:ext cx="457200" cy="674135"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="192" name="图形 191" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB7F25C-C8EB-4895-A20C-2F48F8A7D32B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="文本框 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FE1486-9C35-44A0-B125-631052FEA3C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="194" name="组合 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53A19B2-99D1-42F1-9A37-3ED61E50CA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1685925" y="2990850"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="195" name="图形 194" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AF94C4-ECB4-45F3-9AFF-B567EAD35237}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="文本框 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B64C7F-CF6E-4CD1-B8F5-F3E204E1B45A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>448710</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="197" name="组合 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0C14F2-ED53-47C6-9D3E-067A34CE2468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4311650" y="3343275"/>
+          <a:ext cx="457200" cy="674135"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="198" name="图形 197" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC32E0E-F737-41A2-96B3-67310DA16351}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="文本框 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC46F7-28F9-4BDA-9405-BF168BF140D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67710</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="200" name="组合 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06010D3-6C8C-4151-847D-CBED33CB00D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3781425" y="2981325"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="201" name="图形 200" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4BF1CF-6909-4222-91A7-DF0FD49EADEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="文本框 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0959AEA9-1A70-4F2B-A0CC-751B3B8A62DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="203" name="组合 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36148B9D-FE8D-4252-BF2F-EC2FE30EA9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4257675" y="2990850"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="5302250" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="204" name="图形 203" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301F9A8-8993-4095-8C57-C9A1ED47EE24}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5302250" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="文本框 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E0AD56-F197-40AE-B4AA-0B0486DDAE36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="206" name="组合 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E043161-BD5F-403A-BA8D-0C3EB1AFEA97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="673100" y="10721975"/>
+          <a:ext cx="457200" cy="667785"/>
+          <a:chOff x="2228850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="207" name="图形 206" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD84799B-8547-47E7-8B8E-09CD3C88092A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2228850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="文本框 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA79A234-FF90-4244-9414-59C3F5380482}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2355850" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="209" name="组合 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE11802-10FD-40FA-B9B2-AD86B446D5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1162050" y="10721975"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="210" name="图形 209" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075F338C-2F03-497A-B70B-B430DFF9EF7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="文本框 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9DE085-77A8-4D92-9F1B-10A56222F38E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -11838,8 +16702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6DAFE3-F77E-4E49-AC94-020606F839AD}">
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12931,4 +17795,469 @@
   <pageSetup paperSize="9" scale="61" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE382304-B72F-45DE-B1A6-2094CFC54179}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="12" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="5.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
+      <c r="L7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="65.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="67" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2">
+        <v>9</v>
+      </c>
+      <c r="L19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>9</v>
+      </c>
+      <c r="L28" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9</v>
+      </c>
+      <c r="L33" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="5.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/other2/thomas/usaco/meetings/meetings.xlsx
+++ b/other2/thomas/usaco/meetings/meetings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05C365-2258-4223-AE40-6C44E3680147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C9F7C9-822A-4CA3-BF2E-9172AE05AD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="2" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="2" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3809,15 +3809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>118510</xdr:rowOff>
+      <xdr:rowOff>83585</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3832,8 +3832,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1685925" y="10877550"/>
-          <a:ext cx="457200" cy="664610"/>
+          <a:off x="1692275" y="10836275"/>
+          <a:ext cx="457200" cy="670960"/>
           <a:chOff x="5302250" y="514350"/>
           <a:chExt cx="457200" cy="658260"/>
         </a:xfrm>
@@ -4051,15 +4051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>143910</xdr:rowOff>
+      <xdr:rowOff>55010</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4074,8 +4074,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5372100" y="10896600"/>
-          <a:ext cx="457200" cy="664610"/>
+          <a:off x="5362575" y="10807700"/>
+          <a:ext cx="457200" cy="667785"/>
           <a:chOff x="1206500" y="514350"/>
           <a:chExt cx="457200" cy="670960"/>
         </a:xfrm>
@@ -16703,7 +16703,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17805,7 +17805,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/other2/thomas/usaco/meetings/meetings.xlsx
+++ b/other2/thomas/usaco/meetings/meetings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C9F7C9-822A-4CA3-BF2E-9172AE05AD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDDBF3C-3FEF-4B7F-BF0D-FD74E896C9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="2" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="3" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="陈错误数据" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>碰撞次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16392,6 +16396,1100 @@
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="组合 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7120FD0-DC47-421B-A370-408D9B2AB82A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3800475" y="419100"/>
+          <a:ext cx="457200" cy="674135"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="图形 17" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5850A8CD-C0BE-462F-91AA-112B76D092DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="文本框 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2CD551-7042-4416-9939-8747F6B57DE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58185</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F20CED-0F2D-468F-88DE-E3214917D8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1685925" y="415925"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="3251200" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="图形 20" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CB9FB6-F531-4139-9BCF-728E5B3B9075}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3251200" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="文本框 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271FF719-1A87-4413-9FD6-3B5A900C22BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64535</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="组合 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70947380-EE2B-4AB4-A6D7-CCB98FB537CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2225675" y="428625"/>
+          <a:ext cx="457200" cy="658260"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="图形 23" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01558BE-0451-4A99-AFC4-43A4ABFD4113}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="文本框 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D296AA08-2BB2-4785-A22B-2AD32A9252E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514345</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457195</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102635</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="组合 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0EF6FE9-5C43-4F15-BF30-E30451559121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4257670" y="463550"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="5298598" y="514444"/>
+          <a:chExt cx="458727" cy="658166"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="图形 26" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0617BD-0F19-4EC4-9AC5-89D83F10F5C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5298598" y="514444"/>
+            <a:ext cx="458727" cy="454940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="文本框 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC6086A-C73A-46E5-9A5F-BBCBDCC97D2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441950" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83585</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="组合 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBF7163-4CE9-4B30-BCF3-C9A4AD20B5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5854700" y="428625"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="63" name="图形 62" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F75B65-8208-42EE-9C65-6BA27F7C1FE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="文本框 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7D48D6-BC80-4588-8BD7-91CB0AAF83D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="组合 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4A25B2-3705-4DDB-8B30-D62BB0FB0265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5324475" y="419100"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="87" name="图形 86" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7602C8CC-CA47-4BAE-912D-5C5D313AD70C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="文本框 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08FFD09-BFE5-44AC-A2AE-CE82A702263F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="组合 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A33EC8-69A6-49F6-8631-F9E6D341E5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1228725" y="419100"/>
+          <a:ext cx="457200" cy="677310"/>
+          <a:chOff x="1206500" y="514350"/>
+          <a:chExt cx="457200" cy="670960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="93" name="图形 92" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A91EE64-7297-4873-8AC0-6234845165C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1206500" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="文本框 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBE9920-C5AE-436A-829F-4A681BFAD9F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="920750"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="组合 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C31EB04-A757-4BA9-A619-C1DF79BE8570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4797425" y="447675"/>
+          <a:ext cx="457200" cy="655085"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="图形 95" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFD1751-AC3B-4A26-B1F6-A21DBAC3BBA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="文本框 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98F446F-1C5C-4F18-9399-74F921058FCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="组合 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC37CBF-1A2B-4BD2-97C7-68EA876DF438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2695575" y="434975"/>
+          <a:ext cx="457200" cy="661435"/>
+          <a:chOff x="4260850" y="514350"/>
+          <a:chExt cx="457200" cy="658260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="123" name="图形 122" descr="牛">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DDA486-B177-44A7-AB11-BA7E77757053}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4260850" y="514350"/>
+            <a:ext cx="457200" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="文本框 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952217AC-E06B-4B9F-8864-D58C6E75BBFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4394200" y="908050"/>
+            <a:ext cx="247650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>3</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -17804,7 +18902,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -18260,4 +19358,503 @@
   <pageSetup paperSize="9" scale="61" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1512C-5F47-497A-9D10-3F0330DD9541}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="13" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="5.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11">
+        <v>7</v>
+      </c>
+      <c r="J3" s="11">
+        <v>8</v>
+      </c>
+      <c r="K3" s="11">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="65.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="67" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2">
+        <v>9</v>
+      </c>
+      <c r="L19" s="2">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10</v>
+      </c>
+      <c r="M23" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>9</v>
+      </c>
+      <c r="L28" s="2">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="5.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/other2/thomas/usaco/meetings/meetings.xlsx
+++ b/other2/thomas/usaco/meetings/meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDDBF3C-3FEF-4B7F-BF0D-FD74E896C9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355343F4-003B-4A9D-B37C-A77C81A7018E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="16400" activeTab="3" xr2:uid="{3F8F380F-7601-4392-A378-E5830393DED6}"/>
   </bookViews>
@@ -28,9 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>碰撞次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +69,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -124,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +174,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16414,7 +16446,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -16435,8 +16467,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3800475" y="419100"/>
-          <a:ext cx="457200" cy="674135"/>
+          <a:off x="3800475" y="425450"/>
+          <a:ext cx="457200" cy="667785"/>
           <a:chOff x="1206500" y="514350"/>
           <a:chExt cx="457200" cy="670960"/>
         </a:xfrm>
@@ -16534,14 +16566,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>58185</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16556,8 +16588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1685925" y="415925"/>
-          <a:ext cx="457200" cy="661435"/>
+          <a:off x="1685925" y="434975"/>
+          <a:ext cx="457200" cy="658260"/>
           <a:chOff x="3251200" y="514350"/>
           <a:chExt cx="457200" cy="658260"/>
         </a:xfrm>
@@ -16656,13 +16688,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>64535</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16677,8 +16709,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2225675" y="428625"/>
-          <a:ext cx="457200" cy="658260"/>
+          <a:off x="2225675" y="438150"/>
+          <a:ext cx="457200" cy="655085"/>
           <a:chOff x="4260850" y="514350"/>
           <a:chExt cx="457200" cy="658260"/>
         </a:xfrm>
@@ -16777,13 +16809,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>514345</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457195</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>102635</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16798,8 +16830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4257670" y="463550"/>
-          <a:ext cx="457200" cy="661435"/>
+          <a:off x="4257670" y="434975"/>
+          <a:ext cx="457200" cy="658260"/>
           <a:chOff x="5298598" y="514444"/>
           <a:chExt cx="458727" cy="658166"/>
         </a:xfrm>
@@ -16897,14 +16929,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>511175</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>83585</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16919,7 +16951,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5854700" y="428625"/>
+          <a:off x="5854700" y="415925"/>
           <a:ext cx="457200" cy="677310"/>
           <a:chOff x="1206500" y="514350"/>
           <a:chExt cx="457200" cy="670960"/>
@@ -17019,13 +17051,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77235</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17040,7 +17072,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5324475" y="419100"/>
+          <a:off x="5324475" y="415925"/>
           <a:ext cx="457200" cy="677310"/>
           <a:chOff x="1206500" y="514350"/>
           <a:chExt cx="457200" cy="670960"/>
@@ -17140,13 +17172,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77235</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17161,7 +17193,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1228725" y="419100"/>
+          <a:off x="1228725" y="415925"/>
           <a:ext cx="457200" cy="677310"/>
           <a:chOff x="1206500" y="514350"/>
           <a:chExt cx="457200" cy="670960"/>
@@ -17261,13 +17293,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17282,7 +17314,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4797425" y="447675"/>
+          <a:off x="4797425" y="438150"/>
           <a:ext cx="457200" cy="655085"/>
           <a:chOff x="4260850" y="514350"/>
           <a:chExt cx="457200" cy="658260"/>
@@ -17368,7 +17400,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>9</a:t>
+              <a:t>8</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -17382,13 +17414,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77235</xdr:rowOff>
+      <xdr:rowOff>74060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17404,7 +17436,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2695575" y="434975"/>
-          <a:ext cx="457200" cy="661435"/>
+          <a:ext cx="457200" cy="658260"/>
           <a:chOff x="4260850" y="514350"/>
           <a:chExt cx="457200" cy="658260"/>
         </a:xfrm>
@@ -19368,7 +19400,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19489,9 +19521,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -19505,229 +19535,257 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="65.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="16">
+        <v>7</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>9</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="D17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
         <v>8</v>
       </c>
-      <c r="K11" s="2">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2">
-        <v>10</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="67" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7</v>
-      </c>
-      <c r="J15" s="2">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2">
-        <v>9</v>
-      </c>
-      <c r="L15" s="2">
-        <v>10</v>
-      </c>
-      <c r="M15" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+    <row r="19" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6</v>
-      </c>
-      <c r="I19" s="2">
-        <v>7</v>
-      </c>
-      <c r="J19" s="2">
-        <v>8</v>
-      </c>
-      <c r="K19" s="2">
-        <v>9</v>
-      </c>
-      <c r="L19" s="2">
-        <v>10</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
-    <row r="22" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="21" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C21" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="C22" s="17">
         <v>6</v>
       </c>
-      <c r="I23" s="2">
-        <v>7</v>
-      </c>
-      <c r="J23" s="2">
-        <v>8</v>
-      </c>
-      <c r="K23" s="2">
-        <v>9</v>
-      </c>
-      <c r="L23" s="2">
-        <v>10</v>
-      </c>
-      <c r="M23" s="7">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:16" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -19854,7 +19912,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>